--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_VinaGPS.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_VinaGPS.xlsx
@@ -725,29 +725,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -767,10 +746,31 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1112,41 +1112,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1191,58 +1191,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1267,23 +1267,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
         <v>68</v>
       </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="93" t="s">
+      <c r="K6" s="78" t="s">
         <v>70</v>
       </c>
       <c r="L6" s="62" t="s">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1368,7 +1368,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1547,7 +1547,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3350,6 +3350,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3361,13 +3368,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3411,39 +3411,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3488,58 +3488,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3564,23 +3564,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3606,7 +3606,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3637,7 +3637,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3782,7 +3782,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3813,7 +3813,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5616,13 +5616,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5634,6 +5627,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5677,39 +5677,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5754,58 +5754,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5830,23 +5830,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5872,7 +5872,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5903,7 +5903,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5961,7 +5961,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5990,7 +5990,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6019,7 +6019,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6048,7 +6048,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6079,7 +6079,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6137,7 +6137,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7882,13 +7882,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7900,6 +7893,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7943,39 +7943,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8020,58 +8020,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8096,23 +8096,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8138,7 +8138,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8169,7 +8169,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8198,7 +8198,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8227,7 +8227,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8256,7 +8256,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8285,7 +8285,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8314,7 +8314,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8345,7 +8345,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8403,7 +8403,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8432,7 +8432,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10148,13 +10148,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10166,6 +10159,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10209,39 +10209,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10286,58 +10286,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10362,23 +10362,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10404,7 +10404,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10435,7 +10435,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10464,7 +10464,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10493,7 +10493,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10522,7 +10522,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10551,7 +10551,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10580,7 +10580,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10611,7 +10611,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10640,7 +10640,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10669,7 +10669,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10698,7 +10698,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12414,13 +12414,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12432,6 +12425,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12475,39 +12475,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12552,58 +12552,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12628,23 +12628,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12670,7 +12670,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12701,7 +12701,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12730,7 +12730,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12759,7 +12759,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12788,7 +12788,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12817,7 +12817,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12846,7 +12846,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12877,7 +12877,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12906,7 +12906,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12935,7 +12935,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12964,7 +12964,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14680,13 +14680,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14698,6 +14691,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14741,39 +14741,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14818,58 +14818,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14894,23 +14894,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14936,7 +14936,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14967,7 +14967,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14996,7 +14996,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15025,7 +15025,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15054,7 +15054,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15083,7 +15083,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15112,7 +15112,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15143,7 +15143,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15172,7 +15172,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15201,7 +15201,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15230,7 +15230,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16946,13 +16946,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16964,6 +16957,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17007,39 +17007,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17084,58 +17084,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17160,23 +17160,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17202,7 +17202,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17233,7 +17233,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17262,7 +17262,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17291,7 +17291,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17320,7 +17320,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17349,7 +17349,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17378,7 +17378,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17409,7 +17409,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17438,7 +17438,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17467,7 +17467,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17496,7 +17496,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19212,13 +19212,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19230,6 +19223,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19273,39 +19273,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19350,58 +19350,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19426,23 +19426,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19468,7 +19468,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19499,7 +19499,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19528,7 +19528,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19557,7 +19557,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19586,7 +19586,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19615,7 +19615,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19644,7 +19644,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19675,7 +19675,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19704,7 +19704,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19733,7 +19733,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19762,7 +19762,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20993,6 +20993,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21004,13 +21011,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_VinaGPS.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_VinaGPS.xlsx
@@ -728,6 +728,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,30 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1112,41 +1112,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1191,58 +1191,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1267,23 +1267,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1368,7 +1368,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1547,7 +1547,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3350,13 +3350,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3368,6 +3361,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3411,39 +3411,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3488,58 +3488,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3564,23 +3564,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3606,7 +3606,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3637,7 +3637,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3782,7 +3782,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3813,7 +3813,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5616,6 +5616,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5627,13 +5634,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5677,39 +5677,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5754,58 +5754,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5830,23 +5830,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5872,7 +5872,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5903,7 +5903,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5961,7 +5961,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5990,7 +5990,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6019,7 +6019,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6048,7 +6048,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6079,7 +6079,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6137,7 +6137,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7882,6 +7882,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7893,13 +7900,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7943,39 +7943,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8020,58 +8020,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8096,23 +8096,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8138,7 +8138,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8169,7 +8169,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8198,7 +8198,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8227,7 +8227,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8256,7 +8256,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8285,7 +8285,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8314,7 +8314,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8345,7 +8345,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8403,7 +8403,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8432,7 +8432,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10148,6 +10148,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10159,13 +10166,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10209,39 +10209,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10286,58 +10286,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10362,23 +10362,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10404,7 +10404,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10435,7 +10435,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10464,7 +10464,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10493,7 +10493,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10522,7 +10522,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10551,7 +10551,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10580,7 +10580,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10611,7 +10611,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10640,7 +10640,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10669,7 +10669,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10698,7 +10698,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12414,6 +12414,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12425,13 +12432,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12475,39 +12475,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12552,58 +12552,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12628,23 +12628,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12670,7 +12670,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12701,7 +12701,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12730,7 +12730,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12759,7 +12759,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12788,7 +12788,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12817,7 +12817,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12846,7 +12846,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12877,7 +12877,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12906,7 +12906,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12935,7 +12935,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12964,7 +12964,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14680,6 +14680,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14691,13 +14698,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14741,39 +14741,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14818,58 +14818,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14894,23 +14894,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14936,7 +14936,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14967,7 +14967,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14996,7 +14996,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15025,7 +15025,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15054,7 +15054,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15083,7 +15083,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15112,7 +15112,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15143,7 +15143,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15172,7 +15172,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15201,7 +15201,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15230,7 +15230,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16946,6 +16946,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16957,13 +16964,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17007,39 +17007,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17084,58 +17084,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17160,23 +17160,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17202,7 +17202,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17233,7 +17233,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17262,7 +17262,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17291,7 +17291,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17320,7 +17320,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17349,7 +17349,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17378,7 +17378,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17409,7 +17409,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17438,7 +17438,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17467,7 +17467,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17496,7 +17496,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19212,6 +19212,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19223,13 +19230,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19273,39 +19273,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19350,58 +19350,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19426,23 +19426,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="79"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="87"/>
       <c r="P5" s="93"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19468,7 +19468,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19499,7 +19499,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19528,7 +19528,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19557,7 +19557,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19586,7 +19586,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19615,7 +19615,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19644,7 +19644,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19675,7 +19675,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19704,7 +19704,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19733,7 +19733,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19762,7 +19762,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20993,13 +20993,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21011,6 +21004,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_VinaGPS.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_VinaGPS.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>Thể</t>
+  </si>
+  <si>
+    <t>WP21110069S00296</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn module camera sau</t>
   </si>
 </sst>
 </file>
@@ -1079,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1349,15 +1355,25 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="61">
+        <v>44916</v>
+      </c>
       <c r="C7" s="54"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="D7" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="59" t="s">
+        <v>67</v>
+      </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_VinaGPS.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_VinaGPS.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Còn BH</t>
   </si>
   <si>
-    <t>125.212.203.119,21083</t>
-  </si>
-  <si>
     <t>V3.3.21.5_R22090903</t>
   </si>
   <si>
@@ -276,10 +273,22 @@
     <t>Thể</t>
   </si>
   <si>
-    <t>WP21110069S00296</t>
+    <t>Thiết bị lỗi nguồn module camera sau</t>
   </si>
   <si>
-    <t>Thiết bị lỗi nguồn module camera sau</t>
+    <t>Đổi mới thiết bị</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>ID tb mới : WP21120135S01121/0032002397</t>
+  </si>
+  <si>
+    <t>125.212.204.119,21083/mdvr-5.vnetgps.com.21083</t>
+  </si>
+  <si>
+    <t>WP21110069S00296/00320013CC</t>
   </si>
 </sst>
 </file>
@@ -734,30 +743,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,6 +760,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,7 +1095,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1118,41 +1127,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1197,58 +1206,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1273,23 +1282,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,24 +1325,24 @@
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J6" s="64"/>
       <c r="K6" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="66" t="s">
         <v>70</v>
-      </c>
-      <c r="L6" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="66" t="s">
-        <v>71</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="66" t="s">
         <v>72</v>
-      </c>
-      <c r="P6" s="66" t="s">
-        <v>73</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>19</v>
@@ -1343,7 +1352,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1358,33 +1367,49 @@
       <c r="B7" s="61">
         <v>44916</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44921</v>
+      </c>
       <c r="D7" s="59" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>77</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1413,7 +1438,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1445,7 +1470,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1474,7 +1499,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1503,7 +1528,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1532,7 +1557,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1563,7 +1588,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1592,7 +1617,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1621,7 +1646,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1650,7 +1675,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1800,7 +1825,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2045,7 +2070,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2301,7 +2326,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3366,6 +3391,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3377,13 +3409,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3427,39 +3452,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3504,58 +3529,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3580,23 +3605,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3622,7 +3647,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3653,7 +3678,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3682,7 +3707,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3711,7 +3736,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3740,7 +3765,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3769,7 +3794,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3798,7 +3823,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3829,7 +3854,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3858,7 +3883,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3887,7 +3912,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3916,7 +3941,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5632,13 +5657,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5650,6 +5668,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5693,39 +5718,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5770,58 +5795,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5846,23 +5871,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5888,7 +5913,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5919,7 +5944,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5948,7 +5973,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5977,7 +6002,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6006,7 +6031,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6035,7 +6060,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6064,7 +6089,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6095,7 +6120,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6124,7 +6149,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6153,7 +6178,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6182,7 +6207,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7898,13 +7923,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7916,6 +7934,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7959,39 +7984,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8036,58 +8061,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8112,23 +8137,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8154,7 +8179,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8185,7 +8210,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8214,7 +8239,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8243,7 +8268,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8272,7 +8297,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8301,7 +8326,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8330,7 +8355,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8361,7 +8386,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8390,7 +8415,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8419,7 +8444,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8448,7 +8473,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10164,13 +10189,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10182,6 +10200,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10225,39 +10250,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10302,58 +10327,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10378,23 +10403,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10420,7 +10445,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10451,7 +10476,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10480,7 +10505,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10509,7 +10534,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10538,7 +10563,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10567,7 +10592,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10596,7 +10621,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10627,7 +10652,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10656,7 +10681,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10685,7 +10710,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10714,7 +10739,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12430,13 +12455,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12448,6 +12466,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12491,39 +12516,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12568,58 +12593,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12644,23 +12669,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12686,7 +12711,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12717,7 +12742,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12746,7 +12771,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12775,7 +12800,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12804,7 +12829,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12833,7 +12858,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12862,7 +12887,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12893,7 +12918,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12922,7 +12947,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12951,7 +12976,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12980,7 +13005,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14696,13 +14721,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14714,6 +14732,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14757,39 +14782,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14834,58 +14859,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14910,23 +14935,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14952,7 +14977,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14983,7 +15008,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15012,7 +15037,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15041,7 +15066,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15070,7 +15095,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15099,7 +15124,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15128,7 +15153,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15159,7 +15184,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15188,7 +15213,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15217,7 +15242,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15246,7 +15271,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16962,13 +16987,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16980,6 +16998,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17023,39 +17048,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17100,58 +17125,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17176,23 +17201,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17218,7 +17243,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17249,7 +17274,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17278,7 +17303,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17307,7 +17332,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17336,7 +17361,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17365,7 +17390,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17394,7 +17419,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17425,7 +17450,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17454,7 +17479,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17483,7 +17508,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17512,7 +17537,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19228,13 +19253,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19246,6 +19264,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19289,39 +19314,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19366,58 +19391,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19442,23 +19467,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="87"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="93"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="86"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19484,7 +19509,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19515,7 +19540,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19544,7 +19569,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19573,7 +19598,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19602,7 +19627,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19631,7 +19656,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19660,7 +19685,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19691,7 +19716,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19720,7 +19745,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19749,7 +19774,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19778,7 +19803,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21009,6 +21034,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21020,13 +21052,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_VinaGPS.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_VinaGPS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -743,6 +743,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -760,30 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showZeros="0" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1127,41 +1127,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1206,58 +1206,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1282,23 +1282,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1588,7 +1588,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3391,13 +3391,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3409,6 +3402,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3452,39 +3452,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3529,58 +3529,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3605,23 +3605,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3678,7 +3678,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3765,7 +3765,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3854,7 +3854,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3883,7 +3883,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3941,7 +3941,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5657,6 +5657,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5668,13 +5675,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5718,39 +5718,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5795,58 +5795,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5871,23 +5871,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5913,7 +5913,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5944,7 +5944,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5973,7 +5973,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6002,7 +6002,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6031,7 +6031,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6060,7 +6060,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6089,7 +6089,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6120,7 +6120,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6149,7 +6149,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6207,7 +6207,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7923,6 +7923,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7934,13 +7941,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7984,39 +7984,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8061,58 +8061,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8137,23 +8137,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8179,7 +8179,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8210,7 +8210,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8268,7 +8268,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8297,7 +8297,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8326,7 +8326,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8355,7 +8355,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8386,7 +8386,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8415,7 +8415,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8444,7 +8444,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8473,7 +8473,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10189,6 +10189,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10200,13 +10207,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10250,39 +10250,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10327,58 +10327,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10403,23 +10403,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10445,7 +10445,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10476,7 +10476,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10505,7 +10505,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10534,7 +10534,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10563,7 +10563,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10592,7 +10592,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10621,7 +10621,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10652,7 +10652,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10681,7 +10681,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10710,7 +10710,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10739,7 +10739,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12455,6 +12455,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12466,13 +12473,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12516,39 +12516,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12593,58 +12593,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12669,23 +12669,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12711,7 +12711,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12742,7 +12742,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12771,7 +12771,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12800,7 +12800,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12829,7 +12829,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12858,7 +12858,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12887,7 +12887,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12918,7 +12918,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12947,7 +12947,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12976,7 +12976,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13005,7 +13005,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14721,6 +14721,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14732,13 +14739,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14782,39 +14782,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14859,58 +14859,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14935,23 +14935,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14977,7 +14977,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15008,7 +15008,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15037,7 +15037,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15066,7 +15066,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15095,7 +15095,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15124,7 +15124,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15153,7 +15153,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15184,7 +15184,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15213,7 +15213,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15242,7 +15242,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15271,7 +15271,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16987,6 +16987,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16998,13 +17005,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17048,39 +17048,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17125,58 +17125,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17201,23 +17201,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17243,7 +17243,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17274,7 +17274,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17303,7 +17303,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17332,7 +17332,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17361,7 +17361,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17390,7 +17390,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17419,7 +17419,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17450,7 +17450,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17479,7 +17479,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17508,7 +17508,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17537,7 +17537,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19253,6 +19253,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19264,13 +19271,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19281,7 +19281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
@@ -19314,39 +19314,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19391,58 +19391,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19467,23 +19467,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="79"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="87"/>
       <c r="P5" s="93"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19509,7 +19509,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19540,7 +19540,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19569,7 +19569,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19598,7 +19598,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19627,7 +19627,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19656,7 +19656,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19685,7 +19685,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19716,7 +19716,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19745,7 +19745,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19774,7 +19774,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19803,7 +19803,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21034,13 +21034,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21052,6 +21045,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
